--- a/xlsx/马克斯·韦伯_intext.xlsx
+++ b/xlsx/马克斯·韦伯_intext.xlsx
@@ -15,1467 +15,1464 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="486">
   <si>
     <t>马克斯·韦伯</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%96%AF%C2%B7%E9%9F%8B%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%B2%81%E5%A3%AB%E7%8E%8B%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>普鲁士王国</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_马克斯·韦伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E7%A6%8F%E7%89%B9</t>
+  </si>
+  <si>
+    <t>埃尔福特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E7%8E%9B%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>魏玛共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%85%95%E5%B0%BC%E9%BB%91</t>
+  </si>
+  <si>
+    <t>慕尼黑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E7%91%AA%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>母校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%BE%B7%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>海德堡大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>法学家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>社会学家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>哲学家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF</t>
+  </si>
+  <si>
+    <t>公共行政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E6%B4%AA%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>柏林洪堡大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%8E%B1%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>弗莱堡大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>维也纳大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%85%95%E5%B0%BC%E9%BB%91%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>慕尼黑大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E5%B0%94%E8%B5%9B%E6%9D%A1%E7%BA%A6</t>
+  </si>
+  <si>
+    <t>凡尔赛条约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E7%8E%9B%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>魏玛宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99%E5%80%AB%E7%90%86%E8%88%87%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9%E7%B2%BE%E7%A5%9E</t>
+  </si>
+  <si>
+    <t>新教伦理与资本主义精神</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>宗教社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99%E4%BC%A6%E7%90%86</t>
+  </si>
+  <si>
+    <t>新教伦理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>资本主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%83%9A%E5%88%B6</t>
+  </si>
+  <si>
+    <t>官僚制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E7%B4%80%E7%99%BB%E6%96%AF</t>
+  </si>
+  <si>
+    <t>安东尼·纪登斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E6%9E%97%E6%A0%B9</t>
+  </si>
+  <si>
+    <t>图林根</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>政治家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8B%99%E5%93%A1</t>
+  </si>
+  <si>
+    <t>公务员</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E9%9F%A6%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>阿尔弗雷德·韦伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>德国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德意志帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97</t>
+  </si>
+  <si>
+    <t>教宗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>罗马帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81%E4%B8%80%E4%B8%96_(%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>君士坦丁一世 (罗马帝国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>荷马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%9E%E7%BD%97</t>
+  </si>
+  <si>
+    <t>西塞罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%90%89%E5%B0%94</t>
+  </si>
+  <si>
+    <t>维吉尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%82%E6%89%98%C2%B7%E6%9D%8E%E7%BB%B4</t>
+  </si>
+  <si>
+    <t>蒂托·李维</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>歌德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%AD%AF%E8%B5%AB%C2%B7%E6%96%AF%E8%B3%93%E8%AB%BE%E8%8E%8E</t>
+  </si>
+  <si>
+    <t>巴鲁赫·斯宾诺莎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E5%8A%AA%E5%B0%94%C2%B7%E5%BA%B7%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>伊曼努尔·康德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%91%9F%C2%B7%E5%8F%94%E6%9C%AC%E5%8D%8E</t>
+  </si>
+  <si>
+    <t>亚瑟·叔本华</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>社会科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>神学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E6%8B%89%E6%96%AF%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>斯特拉斯堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%BB%B7%E6%A0%B9%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>哥廷根大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>社会政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%AD%B7%E5%8F%B2%E5%AD%B8%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>经济历史学派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>工业革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>农业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>女权主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>作家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%8E%B1%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>弗莱堡</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Werner_Sombart</t>
+  </si>
+  <si>
+    <t>en-Werner Sombart</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Archiv_f%C3%BCr_Sozialwissenschaft_und_Sozialpolitik</t>
+  </si>
+  <si>
+    <t>en-Archiv für Sozialwissenschaft und Sozialpolitik</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>经济体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B7%AF%E6%98%93%E6%96%AF_(%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>圣路易斯 (密苏里州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%8D%9A%E8%A6%BD%E6%9C%83</t>
+  </si>
+  <si>
+    <t>世界博览会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>社会民主主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>自由主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
+  </si>
+  <si>
+    <t>第一次世界大战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%8C%E7%89%B9%E5%8B%92</t>
+  </si>
+  <si>
+    <t>阿道夫·希特勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>德国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%BA%E7%82%8E</t>
+  </si>
+  <si>
+    <t>肺炎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E9%A9%AC%E5%85%8B%E6%80%9D</t>
+  </si>
+  <si>
+    <t>卡尔·马克思</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%B1%B3%E5%B0%94%C2%B7%E6%B6%82%E5%B0%94%E5%B9%B2</t>
+  </si>
+  <si>
+    <t>埃米尔·涂尔干</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8F%A4%E6%96%AF%E7%89%B9%C2%B7%E5%AD%94%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>奥古斯特·孔德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E8%AF%81%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>实证主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%A1%8C%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>社会行动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>工业社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%85%BE%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>禁慾主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>新教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>加尔文主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%B0%94%E7%A7%91%E7%89%B9%C2%B7%E5%B8%95%E6%A3%AE%E6%96%AF</t>
+  </si>
+  <si>
+    <t>塔尔科特·帕森斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%A9%E7%AF%87</t>
+  </si>
+  <si>
+    <t>诗篇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%9C%A8%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>塔木德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
+  </si>
+  <si>
+    <t>基督教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>伊斯兰教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%BE%BE%E5%B0%94%E6%96%87%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>社会达尔文主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>西方文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>理性主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>法学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>工商业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%82%96%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>悖论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>宗教改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B3%A9</t>
+  </si>
+  <si>
+    <t>孟德斯鸠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%8E%E6%85%88</t>
+  </si>
+  <si>
+    <t>济慈</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ernst_Troeltsch</t>
+  </si>
+  <si>
+    <t>en-Ernst Troeltsch</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>日本人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>犹太人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%9A%84%E5%AE%97%E6%95%99%EF%BC%9A%E5%84%92%E6%95%99%E8%88%87%E9%81%93%E6%95%99</t>
+  </si>
+  <si>
+    <t>中国的宗教：儒教与道教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>儒家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%95%99</t>
+  </si>
+  <si>
+    <t>道教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>西欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%B8%E5%AD%90%E7%99%BE%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>诸子百家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>战国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>封建制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6</t>
+  </si>
+  <si>
+    <t>联邦制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A6%81%E5%A1%9E</t>
+  </si>
+  <si>
+    <t>要塞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E5%9C%B0%E6%96%B9</t>
+  </si>
+  <si>
+    <t>自治地方</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%B1%AC</t>
+  </si>
+  <si>
+    <t>亲属</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AA%91%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>骑士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E5%88%86%E5%AD%90</t>
+  </si>
+  <si>
+    <t>知识分子</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A2%84%E8%A8%80</t>
+  </si>
+  <si>
+    <t>预言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%88%B6</t>
+  </si>
+  <si>
+    <t>神父</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
+  </si>
+  <si>
+    <t>国教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%A0%82</t>
+  </si>
+  <si>
+    <t>教堂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>世俗主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%A7%98%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>神秘主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E7%AB%AF</t>
+  </si>
+  <si>
+    <t>异端</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99</t>
+  </si>
+  <si>
+    <t>佛教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%95%99</t>
+  </si>
+  <si>
+    <t>印度教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E5%A7%93%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>种姓制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A9%86%E7%BD%97%E9%97%A8</t>
+  </si>
+  <si>
+    <t>婆罗门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%B9%E5%B8%9D%E5%88%A9</t>
+  </si>
+  <si>
+    <t>刹帝利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%A0%E8%88%8D</t>
+  </si>
+  <si>
+    <t>吠舍</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%99%80%E7%BD%97</t>
+  </si>
+  <si>
+    <t>首陀罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E8%90%BD</t>
+  </si>
+  <si>
+    <t>部落</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95_(%E4%BD%9B%E5%85%B8)</t>
+  </si>
+  <si>
+    <t>法 (佛典)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%84%92%E6%95%99</t>
+  </si>
+  <si>
+    <t>儒教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%AD%AF</t>
+  </si>
+  <si>
+    <t>古鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E4%B8%96</t>
+  </si>
+  <si>
+    <t>转世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E6%9D%B1</t>
+  </si>
+  <si>
+    <t>近东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亚洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E6%9D%B1</t>
+  </si>
+  <si>
+    <t>远东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%83%BD%E5%9B%A0%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>贝都因人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E5%9F%83%E5%8F%8A%E8%AE%B0</t>
+  </si>
+  <si>
+    <t>出埃及记</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E5%88%B6</t>
+  </si>
+  <si>
+    <t>邦联制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E5%8D%97</t>
+  </si>
+  <si>
+    <t>迦南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E5%92%8C%E8%8F%AF</t>
+  </si>
+  <si>
+    <t>耶和华</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>古罗马</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Reinhard_Bendix</t>
+  </si>
+  <si>
+    <t>en-Reinhard Bendix</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Politik_als_Beruf</t>
+  </si>
+  <si>
+    <t>en-Politik als Beruf</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E4%B8%8A%E5%AF%B6%E8%A8%93</t>
+  </si>
+  <si>
+    <t>山上宝训</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>圣人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%85%E5%8A%9B%E5%9E%8B%E6%9D%83%E5%A8%81</t>
+  </si>
+  <si>
+    <t>魅力型权威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E7%BB%9F%E5%9E%8B%E6%9D%83%E5%A8%81</t>
+  </si>
+  <si>
+    <t>传统型权威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E4%B8%BB%E6%95%99</t>
+  </si>
+  <si>
+    <t>宗主教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B6%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>父权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%90%86%E5%9E%8B%E6%9D%83%E5%A8%81</t>
+  </si>
+  <si>
+    <t>法理型权威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%94%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>俄国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>自由市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>共产主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%9F%AD%E7%BC%BA</t>
+  </si>
+  <si>
+    <t>经济短缺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%B3%95%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>方法学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%92%E7%BA%B3%E6%B3%95</t>
+  </si>
+  <si>
+    <t>归纳法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E8%B1%A1</t>
+  </si>
+  <si>
+    <t>现象</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1</t>
+  </si>
+  <si>
+    <t>抽象</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>经济人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%9C%B0%E4%BD%8D</t>
+  </si>
+  <si>
+    <t>社会地位</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%98%B6%E5%B1%82</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E5%BF%83%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>唯心主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E7%89%A9%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>唯物主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>马克思主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%A1%9A%E4%B9%85%E9%9B%84</t>
+  </si>
+  <si>
+    <t>大冢久雄</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B8%E5%B1%B1%E7%9C%9F%E7%94%B7</t>
+  </si>
+  <si>
+    <t>丸山真男</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E5%A4%A7%E8%A1%9B%C2%B7%E6%A2%AD%E7%BE%85</t>
+  </si>
+  <si>
+    <t>亨利·大卫·梭罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BC%AA%E5%B0%94%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
+  </si>
+  <si>
+    <t>塞缪尔·约翰逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
+  </si>
+  <si>
+    <t>Wayback Machine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E7%A7%91%E7%BD%97%E5%A1%94%E8%80%B6%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>安德烈·科罗塔耶夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
+  </si>
+  <si>
+    <t>国际标准名称识别码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/LIBRIS</t>
+  </si>
+  <si>
+    <t>LIBRIS</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>大学文档系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>法国国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/BIBSYS</t>
+  </si>
+  <si>
+    <t>BIBSYS</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>中国国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2%E6%96%87%E7%8C%AE%E4%BF%9D%E9%9A%9C%E7%B3%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>中国高等教育文献保障系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>澳洲国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>捷克国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E5%9B%BE%E4%B9%A6%E9%A6%86%E8%81%94%E5%90%88%E7%9B%AE%E5%BD%95%E4%B8%AD%E5%A4%AE%E7%A0%94%E7%A9%B6%E6%89%80</t>
+  </si>
+  <si>
+    <t>意大利图书馆联合目录中央研究所</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%9B%BD%E7%AB%8B%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>俄罗斯国立图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>西班牙国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D</t>
+  </si>
+  <si>
+    <t>马克思</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%B1%B3%E5%B0%94%C2%B7%E6%B6%82%E5%B0%94%E5%B9%B2</t>
+  </si>
+  <si>
+    <t>爱米尔·涂尔干</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E8%A5%BF%E6%96%AF%C2%B7%E6%89%98%E5%85%8B%E7%B6%AD%E7%88%BE</t>
+  </si>
+  <si>
+    <t>亚历西斯·托克维尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B8%A0</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%96%AF%E8%B3%93%E5%A1%9E</t>
+  </si>
+  <si>
+    <t>赫伯特·斯宾塞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%B4%AF%E6%89%98</t>
+  </si>
+  <si>
+    <t>帕累托</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%A5%A5%E5%B0%94%E6%A0%BC%C2%B7%E9%BD%90%E7%BE%8E%E5%B0%94</t>
+  </si>
+  <si>
+    <t>格奥尔格·齐美尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E8%BF%AA%E5%8D%97%C2%B7%E6%BB%95%E5%B0%BC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>斐迪南·滕尼斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%96%AF%E4%B8%B9%C2%B7%E8%8C%83%E4%BC%AF%E5%80%AB</t>
+  </si>
+  <si>
+    <t>托斯丹·范伯伦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>现代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E7%8E%B0%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>后现代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E8%83%BD%E4%B8%BB%E7%BE%A9_(%E7%A4%BE%E6%9C%83%E5%AD%B8)</t>
+  </si>
+  <si>
+    <t>功能主义 (社会学)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E9%87%91%C2%B7%E8%8E%AB%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>罗伯特·金·莫顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%BC%97%E9%87%8C%C2%B7%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%EF%BC%88Jeffrey_C._Alexander%EF%BC%89</t>
+  </si>
+  <si>
+    <t>杰弗里·亚历山大（Jeffrey C. Alexander）</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E6%8B%89%E6%96%AF%C2%B7%E5%8D%A2%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>尼克拉斯·卢曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B2%E7%AA%81%E7%90%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>冲突理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B0%94%E5%A4%AB%C2%B7%E8%BE%BE%E4%BC%A6%E5%A4%9A%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>拉尔夫·达伦多夫</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lewis_A._Coser</t>
+  </si>
+  <si>
+    <t>en-Lewis A. Coser</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Randall_Collins</t>
+  </si>
+  <si>
+    <t>en-Randall Collins</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%85%8B%C2%B7%E6%AC%A7%E6%9E%97%C2%B7%E8%B5%96%E7%89%B9%EF%BC%88Erik_Olin_Wright%EF%BC%89</t>
+  </si>
+  <si>
+    <t>埃里克·欧林·赖特（Erik Olin Wright）</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Symbolic_interactionism</t>
+  </si>
+  <si>
+    <t>en-Symbolic interactionism</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E8%B1%A1%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>现象学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%A9%B9%E5%A7%86%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威廉·詹姆士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%9D%9C%E5%A8%81</t>
+  </si>
+  <si>
+    <t>约翰·杜威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E5%BA%AB%E5%88%A9</t>
+  </si>
+  <si>
+    <t>查尔斯·库利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%B3%80%E4%BC%AF%E7%89%B9%C2%B7%E7%B1%B3%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>乔治·贺伯特·米德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E8%88%92%E8%8C%A8</t>
+  </si>
+  <si>
+    <t>阿尔弗雷德·舒茨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E6%96%87%C2%B7%E9%AB%98%E5%A4%AB%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>厄文·高夫曼</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Harold_Garfinkel</t>
+  </si>
+  <si>
+    <t>en-Harold Garfinkel</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%93%E6%9E%84%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>结构主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E7%BB%93%E6%9E%84%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>后结构主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%80%B6%C2%B7%E5%B8%83%E8%BF%AA%E5%8E%84</t>
+  </si>
+  <si>
+    <t>皮耶·布迪厄</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%AD%87%E5%B0%94%C2%B7%E7%A6%8F%E6%9F%AF</t>
+  </si>
+  <si>
+    <t>米歇尔·福柯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%90%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>批判理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E4%B8%9C%E5%B0%BC%E5%A5%A5%C2%B7%E8%91%9B%E5%85%B0%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>安东尼奥·葛兰西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%8D%A1%E5%A5%87%C2%B7%E6%8D%B7%E5%B0%94%E5%90%89</t>
+  </si>
+  <si>
+    <t>卢卡奇·捷尔吉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E6%96%AF%C2%B7%E9%9C%8D%E5%85%8B%E6%B5%B7%E9%BB%98</t>
+  </si>
+  <si>
+    <t>麦克斯·霍克海默</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E5%A5%A7%E5%A4%9A%C2%B7%E9%98%BF%E5%A4%9A%E8%AB%BE</t>
+  </si>
+  <si>
+    <t>狄奥多·阿多诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E9%A9%AC%E5%B0%94%E5%BA%93%E5%A1%9E</t>
+  </si>
+  <si>
+    <t>赫伯特·马尔库塞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%B8%8C%C2%B7%E5%BC%97%E7%BD%97%E5%A7%86</t>
+  </si>
+  <si>
+    <t>埃里希·弗罗姆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B0%94%E6%A0%B9%C2%B7%E5%93%88%E8%B4%9D%E9%A9%AC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>尤尔根·哈贝马斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%8D%9A%E7%89%B9%C2%B7%E4%BC%8A%E9%87%8C%E4%BA%9E%E6%80%9D</t>
+  </si>
+  <si>
+    <t>诺博特·伊里亚思</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%C2%B7%E5%B8%83%E5%B8%8C%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>尚·布希亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BD%90%E6%A0%BC%E8%92%99%C2%B7%E9%B2%8D%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>齐格蒙·鲍曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>社会学家列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>社会学史</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%96%AF%C2%B7%E9%9F%A6%E4%BC%AF</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%B2%81%E5%A3%AB%E7%8E%8B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>普鲁士王国</t>
-  </si>
-  <si>
-    <t>政策_政策_管理_马克斯·韦伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E7%A6%8F%E7%89%B9</t>
-  </si>
-  <si>
-    <t>埃尔福特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E7%8E%9B%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>魏玛共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%85%95%E5%B0%BC%E9%BB%91</t>
-  </si>
-  <si>
-    <t>慕尼黑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E7%91%AA%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>魏瑪共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>母校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%BE%B7%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>海德堡大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>法學家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>社會學家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>哲學家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF</t>
-  </si>
-  <si>
-    <t>公共行政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E6%B4%AA%E5%A0%A1%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>柏林洪堡大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%8E%B1%E5%A0%A1%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>弗莱堡大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>维也纳大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%85%95%E5%B0%BC%E9%BB%91%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>慕尼黑大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E5%B0%94%E8%B5%9B%E6%9D%A1%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>凡尔赛条约</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E7%8E%9B%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>魏玛宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99%E5%80%AB%E7%90%86%E8%88%87%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9%E7%B2%BE%E7%A5%9E</t>
-  </si>
-  <si>
-    <t>新教倫理與資本主義精神</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>宗教社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99%E4%BC%A6%E7%90%86</t>
-  </si>
-  <si>
-    <t>新教伦理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>资本主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%83%9A%E5%88%B6</t>
-  </si>
-  <si>
-    <t>官僚制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%C2%B7%E7%B4%80%E7%99%BB%E6%96%AF</t>
-  </si>
-  <si>
-    <t>安東尼·紀登斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E6%9E%97%E6%A0%B9</t>
-  </si>
-  <si>
-    <t>图林根</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>政治家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8B%99%E5%93%A1</t>
-  </si>
-  <si>
-    <t>公務員</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E9%9F%A6%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>阿尔弗雷德·韦伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>德国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德意志帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97</t>
-  </si>
-  <si>
-    <t>教宗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>羅馬帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E5%A3%AB%E5%9D%A6%E4%B8%81%E4%B8%80%E4%B8%96_(%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>君士坦丁一世 (罗马帝国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>荷马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%9E%E7%BD%97</t>
-  </si>
-  <si>
-    <t>西塞罗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%90%89%E5%B0%94</t>
-  </si>
-  <si>
-    <t>维吉尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%82%E6%89%98%C2%B7%E6%9D%8E%E7%BB%B4</t>
-  </si>
-  <si>
-    <t>蒂托·李维</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>歌德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%AD%AF%E8%B5%AB%C2%B7%E6%96%AF%E8%B3%93%E8%AB%BE%E8%8E%8E</t>
-  </si>
-  <si>
-    <t>巴魯赫·斯賓諾莎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E5%8A%AA%E5%B0%94%C2%B7%E5%BA%B7%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>伊曼努尔·康德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%91%9F%C2%B7%E5%8F%94%E6%9C%AC%E5%8D%8E</t>
-  </si>
-  <si>
-    <t>亚瑟·叔本华</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>社会科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>神學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E6%8B%89%E6%96%AF%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>斯特拉斯堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%BB%B7%E6%A0%B9%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>哥廷根大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>社会政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%AD%B7%E5%8F%B2%E5%AD%B8%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>經濟歷史學派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>工业革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>农业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>女權主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>作家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%8E%B1%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>弗莱堡</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Werner_Sombart</t>
-  </si>
-  <si>
-    <t>en-Werner Sombart</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Archiv_f%C3%BCr_Sozialwissenschaft_und_Sozialpolitik</t>
-  </si>
-  <si>
-    <t>en-Archiv für Sozialwissenschaft und Sozialpolitik</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>经济体系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B7%AF%E6%98%93%E6%96%AF_(%E5%AF%86%E8%8B%8F%E9%87%8C%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>圣路易斯 (密苏里州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%8D%9A%E8%A6%BD%E6%9C%83</t>
-  </si>
-  <si>
-    <t>世界博覽會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>社會民主主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>自由主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
-  </si>
-  <si>
-    <t>第一次世界大战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%8C%E7%89%B9%E5%8B%92</t>
-  </si>
-  <si>
-    <t>阿道夫·希特勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>德國革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%BA%E7%82%8E</t>
-  </si>
-  <si>
-    <t>肺炎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E9%A9%AC%E5%85%8B%E6%80%9D</t>
-  </si>
-  <si>
-    <t>卡尔·马克思</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%B1%B3%E5%B0%94%C2%B7%E6%B6%82%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>埃米尔·涂尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8F%A4%E6%96%AF%E7%89%B9%C2%B7%E5%AD%94%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>奥古斯特·孔德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E8%AF%81%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>实证主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%A1%8C%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>社会行动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>工業社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%85%BE%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>禁慾主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>新教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>加爾文主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%B0%94%E7%A7%91%E7%89%B9%C2%B7%E5%B8%95%E6%A3%AE%E6%96%AF</t>
-  </si>
-  <si>
-    <t>塔尔科特·帕森斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%A9%E7%AF%87</t>
-  </si>
-  <si>
-    <t>詩篇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%9C%A8%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>塔木德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
-  </si>
-  <si>
-    <t>基督教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>伊斯兰教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>社會階層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%BE%BE%E5%B0%94%E6%96%87%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>社会达尔文主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>西方文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>理性主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>数学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>法学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>工商业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%82%96%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>悖论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>宗教改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B3%A9</t>
-  </si>
-  <si>
-    <t>孟德斯鳩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%8E%E6%85%88</t>
-  </si>
-  <si>
-    <t>济慈</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ernst_Troeltsch</t>
-  </si>
-  <si>
-    <t>en-Ernst Troeltsch</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>日本人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>犹太人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%9A%84%E5%AE%97%E6%95%99%EF%BC%9A%E5%84%92%E6%95%99%E8%88%87%E9%81%93%E6%95%99</t>
-  </si>
-  <si>
-    <t>中國的宗教：儒教與道教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>儒家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%95%99</t>
-  </si>
-  <si>
-    <t>道教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>西欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%B8%E5%AD%90%E7%99%BE%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>诸子百家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>戰國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>封建制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6</t>
-  </si>
-  <si>
-    <t>联邦制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A6%81%E5%A1%9E</t>
-  </si>
-  <si>
-    <t>要塞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E5%9C%B0%E6%96%B9</t>
-  </si>
-  <si>
-    <t>自治地方</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%B1%AC</t>
-  </si>
-  <si>
-    <t>親屬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AA%91%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>骑士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E5%88%86%E5%AD%90</t>
-  </si>
-  <si>
-    <t>知识分子</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A2%84%E8%A8%80</t>
-  </si>
-  <si>
-    <t>预言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%88%B6</t>
-  </si>
-  <si>
-    <t>神父</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
-  </si>
-  <si>
-    <t>國教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%A0%82</t>
-  </si>
-  <si>
-    <t>教堂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>世俗主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%A7%98%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>神秘主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E7%AB%AF</t>
-  </si>
-  <si>
-    <t>異端</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99</t>
-  </si>
-  <si>
-    <t>佛教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%95%99</t>
-  </si>
-  <si>
-    <t>印度教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E5%A7%93%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>种姓制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A9%86%E7%BD%97%E9%97%A8</t>
-  </si>
-  <si>
-    <t>婆罗门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%B9%E5%B8%9D%E5%88%A9</t>
-  </si>
-  <si>
-    <t>刹帝利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%A0%E8%88%8D</t>
-  </si>
-  <si>
-    <t>吠舍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%99%80%E7%BD%97</t>
-  </si>
-  <si>
-    <t>首陀罗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E8%90%BD</t>
-  </si>
-  <si>
-    <t>部落</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95_(%E4%BD%9B%E5%85%B8)</t>
-  </si>
-  <si>
-    <t>法 (佛典)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%84%92%E6%95%99</t>
-  </si>
-  <si>
-    <t>儒教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%AD%AF</t>
-  </si>
-  <si>
-    <t>古魯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E4%B8%96</t>
-  </si>
-  <si>
-    <t>轉世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E6%9D%B1</t>
-  </si>
-  <si>
-    <t>近東</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亚洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E6%9D%B1</t>
-  </si>
-  <si>
-    <t>遠東</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%83%BD%E5%9B%A0%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>貝都因人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E5%9F%83%E5%8F%8A%E8%AE%B0</t>
-  </si>
-  <si>
-    <t>出埃及记</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E5%88%B6</t>
-  </si>
-  <si>
-    <t>邦联制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E5%8D%97</t>
-  </si>
-  <si>
-    <t>迦南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E5%92%8C%E8%8F%AF</t>
-  </si>
-  <si>
-    <t>耶和華</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>古罗马</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Reinhard_Bendix</t>
-  </si>
-  <si>
-    <t>en-Reinhard Bendix</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Politik_als_Beruf</t>
-  </si>
-  <si>
-    <t>en-Politik als Beruf</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E4%B8%8A%E5%AF%B6%E8%A8%93</t>
-  </si>
-  <si>
-    <t>山上寶訓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>圣人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%85%E5%8A%9B%E5%9E%8B%E6%9D%83%E5%A8%81</t>
-  </si>
-  <si>
-    <t>魅力型权威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E7%BB%9F%E5%9E%8B%E6%9D%83%E5%A8%81</t>
-  </si>
-  <si>
-    <t>传统型权威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E4%B8%BB%E6%95%99</t>
-  </si>
-  <si>
-    <t>宗主教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B6%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>父權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%90%86%E5%9E%8B%E6%9D%83%E5%A8%81</t>
-  </si>
-  <si>
-    <t>法理型权威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%94%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>社會達爾文主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>俄国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>社会主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>自由市場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>共产主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%9F%AD%E7%BC%BA</t>
-  </si>
-  <si>
-    <t>經濟短缺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%B3%95%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>方法学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%92%E7%BA%B3%E6%B3%95</t>
-  </si>
-  <si>
-    <t>归纳法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E8%B1%A1</t>
-  </si>
-  <si>
-    <t>現象</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1</t>
-  </si>
-  <si>
-    <t>抽象</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>经济人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%9C%B0%E4%BD%8D</t>
-  </si>
-  <si>
-    <t>社會地位</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%98%B6%E5%B1%82</t>
-  </si>
-  <si>
-    <t>社会阶层</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>市場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E5%BF%83%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>唯心主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E7%89%A9%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>唯物主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>马克思主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%A1%9A%E4%B9%85%E9%9B%84</t>
-  </si>
-  <si>
-    <t>大塚久雄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B8%E5%B1%B1%E7%9C%9F%E7%94%B7</t>
-  </si>
-  <si>
-    <t>丸山真男</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E5%A4%A7%E8%A1%9B%C2%B7%E6%A2%AD%E7%BE%85</t>
-  </si>
-  <si>
-    <t>亨利·大衛·梭羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BC%AA%E5%B0%94%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
-  </si>
-  <si>
-    <t>塞缪尔·约翰逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
-  </si>
-  <si>
-    <t>Wayback Machine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E7%A7%91%E7%BD%97%E5%A1%94%E8%80%B6%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>安德烈·科罗塔耶夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
-  </si>
-  <si>
-    <t>國際標準名稱識別碼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/LIBRIS</t>
-  </si>
-  <si>
-    <t>LIBRIS</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>大學文檔系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>法国国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/BIBSYS</t>
-  </si>
-  <si>
-    <t>BIBSYS</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>中国国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2%E6%96%87%E7%8C%AE%E4%BF%9D%E9%9A%9C%E7%B3%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>中国高等教育文献保障系统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>澳洲國家圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>捷克国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E5%9B%BE%E4%B9%A6%E9%A6%86%E8%81%94%E5%90%88%E7%9B%AE%E5%BD%95%E4%B8%AD%E5%A4%AE%E7%A0%94%E7%A9%B6%E6%89%80</t>
-  </si>
-  <si>
-    <t>意大利图书馆联合目录中央研究所</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%9B%BD%E7%AB%8B%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>俄罗斯国立图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>西班牙国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D</t>
-  </si>
-  <si>
-    <t>马克思</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%B1%B3%E5%B0%94%C2%B7%E6%B6%82%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>爱米尔·涂尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E8%A5%BF%E6%96%AF%C2%B7%E6%89%98%E5%85%8B%E7%B6%AD%E7%88%BE</t>
-  </si>
-  <si>
-    <t>亞歷西斯·托克維爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B8%A0</t>
-  </si>
-  <si>
-    <t>孟德斯鸠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%96%AF%E8%B3%93%E5%A1%9E</t>
-  </si>
-  <si>
-    <t>赫伯特·斯賓塞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%B4%AF%E6%89%98</t>
-  </si>
-  <si>
-    <t>帕累托</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%A5%A5%E5%B0%94%E6%A0%BC%C2%B7%E9%BD%90%E7%BE%8E%E5%B0%94</t>
-  </si>
-  <si>
-    <t>格奥尔格·齐美尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E8%BF%AA%E5%8D%97%C2%B7%E6%BB%95%E5%B0%BC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>斐迪南·滕尼斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%96%AF%E4%B8%B9%C2%B7%E8%8C%83%E4%BC%AF%E5%80%AB</t>
-  </si>
-  <si>
-    <t>托斯丹·范伯倫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>现代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E7%8E%B0%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>后现代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E8%83%BD%E4%B8%BB%E7%BE%A9_(%E7%A4%BE%E6%9C%83%E5%AD%B8)</t>
-  </si>
-  <si>
-    <t>功能主義 (社會學)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E9%87%91%C2%B7%E8%8E%AB%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>罗伯特·金·莫顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%BC%97%E9%87%8C%C2%B7%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%EF%BC%88Jeffrey_C._Alexander%EF%BC%89</t>
-  </si>
-  <si>
-    <t>杰弗里·亚历山大（Jeffrey C. Alexander）</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E6%8B%89%E6%96%AF%C2%B7%E5%8D%A2%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>尼克拉斯·卢曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B2%E7%AA%81%E7%90%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>冲突理论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B0%94%E5%A4%AB%C2%B7%E8%BE%BE%E4%BC%A6%E5%A4%9A%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>拉尔夫·达伦多夫</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lewis_A._Coser</t>
-  </si>
-  <si>
-    <t>en-Lewis A. Coser</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Randall_Collins</t>
-  </si>
-  <si>
-    <t>en-Randall Collins</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%85%8B%C2%B7%E6%AC%A7%E6%9E%97%C2%B7%E8%B5%96%E7%89%B9%EF%BC%88Erik_Olin_Wright%EF%BC%89</t>
-  </si>
-  <si>
-    <t>埃里克·欧林·赖特（Erik Olin Wright）</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Symbolic_interactionism</t>
-  </si>
-  <si>
-    <t>en-Symbolic interactionism</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E8%B1%A1%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>现象学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%A9%B9%E5%A7%86%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>威廉·詹姆士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%9D%9C%E5%A8%81</t>
-  </si>
-  <si>
-    <t>约翰·杜威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E5%BA%AB%E5%88%A9</t>
-  </si>
-  <si>
-    <t>查爾斯·庫利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%B3%80%E4%BC%AF%E7%89%B9%C2%B7%E7%B1%B3%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>喬治·賀伯特·米德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E8%88%92%E8%8C%A8</t>
-  </si>
-  <si>
-    <t>阿尔弗雷德·舒茨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E6%96%87%C2%B7%E9%AB%98%E5%A4%AB%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>厄文·高夫曼</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Harold_Garfinkel</t>
-  </si>
-  <si>
-    <t>en-Harold Garfinkel</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%93%E6%9E%84%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>结构主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E7%BB%93%E6%9E%84%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>后结构主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%80%B6%C2%B7%E5%B8%83%E8%BF%AA%E5%8E%84</t>
-  </si>
-  <si>
-    <t>皮耶·布迪厄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%AD%87%E5%B0%94%C2%B7%E7%A6%8F%E6%9F%AF</t>
-  </si>
-  <si>
-    <t>米歇尔·福柯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%90%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>批判理论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E4%B8%9C%E5%B0%BC%E5%A5%A5%C2%B7%E8%91%9B%E5%85%B0%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>安东尼奥·葛兰西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%8D%A1%E5%A5%87%C2%B7%E6%8D%B7%E5%B0%94%E5%90%89</t>
-  </si>
-  <si>
-    <t>卢卡奇·捷尔吉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%E6%96%AF%C2%B7%E9%9C%8D%E5%85%8B%E6%B5%B7%E9%BB%98</t>
-  </si>
-  <si>
-    <t>麥克斯·霍克海默</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E5%A5%A7%E5%A4%9A%C2%B7%E9%98%BF%E5%A4%9A%E8%AB%BE</t>
-  </si>
-  <si>
-    <t>狄奧多·阿多諾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E9%A9%AC%E5%B0%94%E5%BA%93%E5%A1%9E</t>
-  </si>
-  <si>
-    <t>赫伯特·马尔库塞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E5%B8%8C%C2%B7%E5%BC%97%E7%BD%97%E5%A7%86</t>
-  </si>
-  <si>
-    <t>埃里希·弗罗姆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B0%94%E6%A0%B9%C2%B7%E5%93%88%E8%B4%9D%E9%A9%AC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>尤尔根·哈贝马斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%8D%9A%E7%89%B9%C2%B7%E4%BC%8A%E9%87%8C%E4%BA%9E%E6%80%9D</t>
-  </si>
-  <si>
-    <t>諾博特·伊里亞思</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%C2%B7%E5%B8%83%E5%B8%8C%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>尚·布希亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BD%90%E6%A0%BC%E8%92%99%C2%B7%E9%B2%8D%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>齐格蒙·鲍曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>社會學家列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>社會學史</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I258"/>
+  <dimension ref="A1:I260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1991,7 +1988,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
         <v>23</v>
@@ -2017,10 +2014,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -2046,10 +2043,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
@@ -2075,10 +2072,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -2104,10 +2101,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>7</v>
@@ -2133,10 +2130,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>15</v>
@@ -2162,10 +2159,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -2191,10 +2188,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -2220,10 +2217,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -2249,10 +2246,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
@@ -2278,10 +2275,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>6</v>
@@ -2307,10 +2304,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -2336,10 +2333,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
         <v>15</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2365,10 +2362,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -2394,10 +2391,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -2423,10 +2420,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -2452,10 +2449,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2481,10 +2478,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
@@ -2510,10 +2507,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>11</v>
@@ -2539,10 +2536,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>9</v>
@@ -2568,10 +2565,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>13</v>
@@ -2597,10 +2594,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>8</v>
@@ -2626,10 +2623,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>4</v>
@@ -2655,10 +2652,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2684,10 +2681,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2713,10 +2710,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2742,10 +2739,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -2771,10 +2768,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2800,10 +2797,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2829,10 +2826,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -2858,10 +2855,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -2887,10 +2884,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2916,10 +2913,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2945,10 +2942,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2974,10 +2971,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3003,10 +3000,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3032,10 +3029,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3061,10 +3058,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3090,10 +3087,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3119,10 +3116,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3148,10 +3145,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3177,10 +3174,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3206,10 +3203,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>10</v>
@@ -3235,10 +3232,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" t="s">
         <v>43</v>
-      </c>
-      <c r="F49" t="s">
-        <v>44</v>
       </c>
       <c r="G49" t="n">
         <v>14</v>
@@ -3264,10 +3261,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>4</v>
@@ -3293,10 +3290,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3322,10 +3319,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3351,10 +3348,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3380,10 +3377,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -3409,10 +3406,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3438,10 +3435,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3467,10 +3464,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3496,10 +3493,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3525,10 +3522,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3554,10 +3551,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3583,10 +3580,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3612,10 +3609,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>11</v>
@@ -3641,10 +3638,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>62</v>
@@ -3670,10 +3667,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3699,10 +3696,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3728,10 +3725,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3757,10 +3754,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3786,10 +3783,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3815,10 +3812,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3844,10 +3841,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3876,7 +3873,7 @@
         <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3902,10 +3899,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3931,10 +3928,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3960,10 +3957,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3989,10 +3986,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -4018,10 +4015,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4047,10 +4044,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4076,10 +4073,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4105,10 +4102,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4134,10 +4131,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4163,10 +4160,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4192,10 +4189,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -4221,10 +4218,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>33</v>
@@ -4250,10 +4247,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4279,10 +4276,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>52</v>
+      </c>
+      <c r="F85" t="s">
         <v>53</v>
-      </c>
-      <c r="F85" t="s">
-        <v>54</v>
       </c>
       <c r="G85" t="n">
         <v>5</v>
@@ -4308,10 +4305,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" t="s">
         <v>163</v>
-      </c>
-      <c r="F86" t="s">
-        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -4337,10 +4334,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>164</v>
+      </c>
+      <c r="F87" t="s">
         <v>165</v>
-      </c>
-      <c r="F87" t="s">
-        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4366,10 +4363,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>166</v>
+      </c>
+      <c r="F88" t="s">
         <v>167</v>
-      </c>
-      <c r="F88" t="s">
-        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4395,10 +4392,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>168</v>
+      </c>
+      <c r="F89" t="s">
         <v>169</v>
-      </c>
-      <c r="F89" t="s">
-        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>10</v>
@@ -4424,10 +4421,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" t="s">
         <v>171</v>
-      </c>
-      <c r="F90" t="s">
-        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4453,10 +4450,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" t="s">
         <v>173</v>
-      </c>
-      <c r="F91" t="s">
-        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -4482,10 +4479,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F92" t="s">
         <v>175</v>
-      </c>
-      <c r="F92" t="s">
-        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4511,10 +4508,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" t="s">
         <v>177</v>
-      </c>
-      <c r="F93" t="s">
-        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>5</v>
@@ -4540,10 +4537,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>160</v>
+      </c>
+      <c r="F94" t="s">
         <v>161</v>
-      </c>
-      <c r="F94" t="s">
-        <v>162</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4569,10 +4566,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>178</v>
+      </c>
+      <c r="F95" t="s">
         <v>179</v>
-      </c>
-      <c r="F95" t="s">
-        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -4598,10 +4595,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>180</v>
+      </c>
+      <c r="F96" t="s">
         <v>181</v>
-      </c>
-      <c r="F96" t="s">
-        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4627,10 +4624,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>182</v>
+      </c>
+      <c r="F97" t="s">
         <v>183</v>
-      </c>
-      <c r="F97" t="s">
-        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4656,10 +4653,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>184</v>
+      </c>
+      <c r="F98" t="s">
         <v>185</v>
-      </c>
-      <c r="F98" t="s">
-        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4685,10 +4682,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>186</v>
+      </c>
+      <c r="F99" t="s">
         <v>187</v>
-      </c>
-      <c r="F99" t="s">
-        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>9</v>
@@ -4714,10 +4711,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100" t="s">
         <v>189</v>
-      </c>
-      <c r="F100" t="s">
-        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4743,10 +4740,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" t="s">
         <v>191</v>
-      </c>
-      <c r="F101" t="s">
-        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4772,10 +4769,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" t="s">
         <v>193</v>
-      </c>
-      <c r="F102" t="s">
-        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4801,10 +4798,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" t="s">
         <v>195</v>
-      </c>
-      <c r="F103" t="s">
-        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4830,10 +4827,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" t="s">
         <v>197</v>
-      </c>
-      <c r="F104" t="s">
-        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4859,10 +4856,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F105" t="s">
         <v>199</v>
-      </c>
-      <c r="F105" t="s">
-        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4888,10 +4885,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>94</v>
+      </c>
+      <c r="F106" t="s">
         <v>95</v>
-      </c>
-      <c r="F106" t="s">
-        <v>96</v>
       </c>
       <c r="G106" t="n">
         <v>3</v>
@@ -4917,10 +4914,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>200</v>
+      </c>
+      <c r="F107" t="s">
         <v>201</v>
-      </c>
-      <c r="F107" t="s">
-        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4946,10 +4943,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>202</v>
+      </c>
+      <c r="F108" t="s">
         <v>203</v>
-      </c>
-      <c r="F108" t="s">
-        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>9</v>
@@ -4975,10 +4972,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>204</v>
+      </c>
+      <c r="F109" t="s">
         <v>205</v>
-      </c>
-      <c r="F109" t="s">
-        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5004,10 +5001,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>206</v>
+      </c>
+      <c r="F110" t="s">
         <v>207</v>
-      </c>
-      <c r="F110" t="s">
-        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>4</v>
@@ -5033,10 +5030,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>208</v>
+      </c>
+      <c r="F111" t="s">
         <v>209</v>
-      </c>
-      <c r="F111" t="s">
-        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>7</v>
@@ -5062,10 +5059,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>210</v>
+      </c>
+      <c r="F112" t="s">
         <v>211</v>
-      </c>
-      <c r="F112" t="s">
-        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -5091,10 +5088,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>212</v>
+      </c>
+      <c r="F113" t="s">
         <v>213</v>
-      </c>
-      <c r="F113" t="s">
-        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5120,10 +5117,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>214</v>
+      </c>
+      <c r="F114" t="s">
         <v>215</v>
-      </c>
-      <c r="F114" t="s">
-        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5149,10 +5146,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>216</v>
+      </c>
+      <c r="F115" t="s">
         <v>217</v>
-      </c>
-      <c r="F115" t="s">
-        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5178,10 +5175,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>218</v>
+      </c>
+      <c r="F116" t="s">
         <v>219</v>
-      </c>
-      <c r="F116" t="s">
-        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5207,10 +5204,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>220</v>
+      </c>
+      <c r="F117" t="s">
         <v>221</v>
-      </c>
-      <c r="F117" t="s">
-        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5236,10 +5233,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>222</v>
+      </c>
+      <c r="F118" t="s">
         <v>223</v>
-      </c>
-      <c r="F118" t="s">
-        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5265,10 +5262,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>224</v>
+      </c>
+      <c r="F119" t="s">
         <v>225</v>
-      </c>
-      <c r="F119" t="s">
-        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5294,10 +5291,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>226</v>
+      </c>
+      <c r="F120" t="s">
         <v>227</v>
-      </c>
-      <c r="F120" t="s">
-        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5323,10 +5320,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>228</v>
+      </c>
+      <c r="F121" t="s">
         <v>229</v>
-      </c>
-      <c r="F121" t="s">
-        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5352,10 +5349,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>230</v>
+      </c>
+      <c r="F122" t="s">
         <v>231</v>
-      </c>
-      <c r="F122" t="s">
-        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -5381,10 +5378,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>232</v>
+      </c>
+      <c r="F123" t="s">
         <v>233</v>
-      </c>
-      <c r="F123" t="s">
-        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5410,10 +5407,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>234</v>
+      </c>
+      <c r="F124" t="s">
         <v>235</v>
-      </c>
-      <c r="F124" t="s">
-        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5439,10 +5436,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>188</v>
+      </c>
+      <c r="F125" t="s">
         <v>189</v>
-      </c>
-      <c r="F125" t="s">
-        <v>190</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5468,10 +5465,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>236</v>
+      </c>
+      <c r="F126" t="s">
         <v>237</v>
-      </c>
-      <c r="F126" t="s">
-        <v>238</v>
       </c>
       <c r="G126" t="n">
         <v>8</v>
@@ -5497,10 +5494,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>238</v>
+      </c>
+      <c r="F127" t="s">
         <v>239</v>
-      </c>
-      <c r="F127" t="s">
-        <v>240</v>
       </c>
       <c r="G127" t="n">
         <v>4</v>
@@ -5526,10 +5523,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>240</v>
+      </c>
+      <c r="F128" t="s">
         <v>241</v>
-      </c>
-      <c r="F128" t="s">
-        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5555,10 +5552,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>242</v>
+      </c>
+      <c r="F129" t="s">
         <v>243</v>
-      </c>
-      <c r="F129" t="s">
-        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5584,10 +5581,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>244</v>
+      </c>
+      <c r="F130" t="s">
         <v>245</v>
-      </c>
-      <c r="F130" t="s">
-        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -5613,10 +5610,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>246</v>
+      </c>
+      <c r="F131" t="s">
         <v>247</v>
-      </c>
-      <c r="F131" t="s">
-        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5642,10 +5639,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>248</v>
+      </c>
+      <c r="F132" t="s">
         <v>249</v>
-      </c>
-      <c r="F132" t="s">
-        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5671,10 +5668,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>250</v>
+      </c>
+      <c r="F133" t="s">
         <v>251</v>
-      </c>
-      <c r="F133" t="s">
-        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>7</v>
@@ -5700,10 +5697,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>252</v>
+      </c>
+      <c r="F134" t="s">
         <v>253</v>
-      </c>
-      <c r="F134" t="s">
-        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>7</v>
@@ -5729,10 +5726,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>254</v>
+      </c>
+      <c r="F135" t="s">
         <v>255</v>
-      </c>
-      <c r="F135" t="s">
-        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>25</v>
@@ -5758,10 +5755,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>256</v>
+      </c>
+      <c r="F136" t="s">
         <v>257</v>
-      </c>
-      <c r="F136" t="s">
-        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5787,10 +5784,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>258</v>
+      </c>
+      <c r="F137" t="s">
         <v>259</v>
-      </c>
-      <c r="F137" t="s">
-        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -5816,10 +5813,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>260</v>
+      </c>
+      <c r="F138" t="s">
         <v>261</v>
-      </c>
-      <c r="F138" t="s">
-        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5845,10 +5842,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>262</v>
+      </c>
+      <c r="F139" t="s">
         <v>263</v>
-      </c>
-      <c r="F139" t="s">
-        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5874,10 +5871,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>264</v>
+      </c>
+      <c r="F140" t="s">
         <v>265</v>
-      </c>
-      <c r="F140" t="s">
-        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5903,10 +5900,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>266</v>
+      </c>
+      <c r="F141" t="s">
         <v>267</v>
-      </c>
-      <c r="F141" t="s">
-        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5932,10 +5929,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>268</v>
+      </c>
+      <c r="F142" t="s">
         <v>269</v>
-      </c>
-      <c r="F142" t="s">
-        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5961,10 +5958,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>270</v>
+      </c>
+      <c r="F143" t="s">
         <v>271</v>
-      </c>
-      <c r="F143" t="s">
-        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>13</v>
@@ -5990,10 +5987,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>156</v>
+      </c>
+      <c r="F144" t="s">
         <v>157</v>
-      </c>
-      <c r="F144" t="s">
-        <v>158</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6019,10 +6016,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>272</v>
+      </c>
+      <c r="F145" t="s">
         <v>273</v>
-      </c>
-      <c r="F145" t="s">
-        <v>274</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6048,10 +6045,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>274</v>
+      </c>
+      <c r="F146" t="s">
         <v>275</v>
-      </c>
-      <c r="F146" t="s">
-        <v>276</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6077,10 +6074,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>50</v>
+      </c>
+      <c r="F147" t="s">
         <v>51</v>
-      </c>
-      <c r="F147" t="s">
-        <v>52</v>
       </c>
       <c r="G147" t="n">
         <v>24</v>
@@ -6106,10 +6103,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>246</v>
+      </c>
+      <c r="F148" t="s">
         <v>247</v>
-      </c>
-      <c r="F148" t="s">
-        <v>248</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6135,10 +6132,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>276</v>
+      </c>
+      <c r="F149" t="s">
         <v>277</v>
-      </c>
-      <c r="F149" t="s">
-        <v>278</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6164,10 +6161,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>278</v>
+      </c>
+      <c r="F150" t="s">
         <v>279</v>
-      </c>
-      <c r="F150" t="s">
-        <v>280</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6193,10 +6190,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>280</v>
+      </c>
+      <c r="F151" t="s">
         <v>281</v>
-      </c>
-      <c r="F151" t="s">
-        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6222,10 +6219,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>282</v>
+      </c>
+      <c r="F152" t="s">
         <v>283</v>
-      </c>
-      <c r="F152" t="s">
-        <v>284</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6251,10 +6248,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>284</v>
+      </c>
+      <c r="F153" t="s">
         <v>285</v>
-      </c>
-      <c r="F153" t="s">
-        <v>286</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6280,10 +6277,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>286</v>
+      </c>
+      <c r="F154" t="s">
         <v>287</v>
-      </c>
-      <c r="F154" t="s">
-        <v>288</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -6309,10 +6306,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>288</v>
+      </c>
+      <c r="F155" t="s">
         <v>289</v>
-      </c>
-      <c r="F155" t="s">
-        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6338,10 +6335,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>290</v>
+      </c>
+      <c r="F156" t="s">
         <v>291</v>
-      </c>
-      <c r="F156" t="s">
-        <v>292</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6367,10 +6364,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>292</v>
+      </c>
+      <c r="F157" t="s">
         <v>293</v>
-      </c>
-      <c r="F157" t="s">
-        <v>294</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6396,10 +6393,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>294</v>
+      </c>
+      <c r="F158" t="s">
         <v>295</v>
-      </c>
-      <c r="F158" t="s">
-        <v>296</v>
       </c>
       <c r="G158" t="n">
         <v>3</v>
@@ -6425,10 +6422,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>296</v>
+      </c>
+      <c r="F159" t="s">
         <v>297</v>
-      </c>
-      <c r="F159" t="s">
-        <v>298</v>
       </c>
       <c r="G159" t="n">
         <v>3</v>
@@ -6454,10 +6451,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>298</v>
+      </c>
+      <c r="F160" t="s">
         <v>299</v>
-      </c>
-      <c r="F160" t="s">
-        <v>300</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6483,10 +6480,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>300</v>
+      </c>
+      <c r="F161" t="s">
         <v>301</v>
-      </c>
-      <c r="F161" t="s">
-        <v>302</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6512,10 +6509,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>302</v>
+      </c>
+      <c r="F162" t="s">
         <v>303</v>
-      </c>
-      <c r="F162" t="s">
-        <v>304</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6541,10 +6538,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>304</v>
+      </c>
+      <c r="F163" t="s">
         <v>305</v>
-      </c>
-      <c r="F163" t="s">
-        <v>306</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6570,10 +6567,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>306</v>
+      </c>
+      <c r="F164" t="s">
         <v>307</v>
-      </c>
-      <c r="F164" t="s">
-        <v>308</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6599,10 +6596,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>308</v>
+      </c>
+      <c r="F165" t="s">
         <v>309</v>
-      </c>
-      <c r="F165" t="s">
-        <v>310</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6628,10 +6625,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>310</v>
+      </c>
+      <c r="F166" t="s">
         <v>311</v>
-      </c>
-      <c r="F166" t="s">
-        <v>312</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6657,10 +6654,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>52</v>
+      </c>
+      <c r="F167" t="s">
         <v>53</v>
-      </c>
-      <c r="F167" t="s">
-        <v>54</v>
       </c>
       <c r="G167" t="n">
         <v>15</v>
@@ -6686,10 +6683,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F168" t="s">
-        <v>314</v>
+        <v>175</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6715,10 +6712,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F169" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6744,10 +6741,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F170" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6773,10 +6770,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F171" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6802,10 +6799,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F172" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6831,10 +6828,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F173" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6860,10 +6857,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F174" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6889,10 +6886,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F175" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6918,10 +6915,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F176" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G176" t="n">
         <v>5</v>
@@ -6947,10 +6944,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F177" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6976,10 +6973,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F178" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7005,10 +7002,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F179" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -7034,10 +7031,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F180" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7063,10 +7060,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F181" t="s">
-        <v>340</v>
+        <v>173</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7092,10 +7089,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F182" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7121,10 +7118,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F183" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7150,10 +7147,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F184" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7179,10 +7176,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F185" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7208,10 +7205,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F186" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7237,10 +7234,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F187" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7266,10 +7263,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F188" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7295,10 +7292,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F189" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7324,10 +7321,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F190" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G190" t="n">
         <v>3</v>
@@ -7353,10 +7350,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F191" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7382,10 +7379,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F192" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G192" t="n">
         <v>5</v>
@@ -7411,10 +7408,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F193" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7440,10 +7437,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F194" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7469,10 +7466,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F195" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7498,10 +7495,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F196" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7527,10 +7524,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F197" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7556,10 +7553,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F198" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7585,10 +7582,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F199" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7614,10 +7611,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F200" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7643,10 +7640,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F201" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7672,10 +7669,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F202" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7701,10 +7698,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F203" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7730,10 +7727,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F204" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7759,10 +7756,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F205" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7788,10 +7785,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F206" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -7817,10 +7814,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F207" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7846,10 +7843,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F208" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7875,10 +7872,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>146</v>
+      </c>
+      <c r="F209" t="s">
         <v>147</v>
-      </c>
-      <c r="F209" t="s">
-        <v>148</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7904,10 +7901,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F210" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7933,10 +7930,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F211" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7962,10 +7959,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F212" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7991,10 +7988,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F213" t="s">
-        <v>402</v>
+        <v>195</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8020,10 +8017,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F214" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8049,10 +8046,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F215" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8078,10 +8075,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F216" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8107,10 +8104,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F217" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8136,10 +8133,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F218" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8165,10 +8162,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F219" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8194,10 +8191,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F220" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8223,10 +8220,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F221" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8252,10 +8249,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>162</v>
+      </c>
+      <c r="F222" t="s">
         <v>163</v>
-      </c>
-      <c r="F222" t="s">
-        <v>164</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8281,10 +8278,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F223" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8310,10 +8307,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F224" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8339,10 +8336,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F225" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8368,10 +8365,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F226" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8397,10 +8394,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F227" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8426,10 +8423,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F228" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8455,10 +8452,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F229" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -8484,10 +8481,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F230" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8513,10 +8510,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F231" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8542,10 +8539,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F232" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8571,10 +8568,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F233" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8600,10 +8597,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F234" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8629,10 +8626,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F235" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8658,10 +8655,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F236" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8687,10 +8684,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F237" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8716,10 +8713,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F238" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8745,10 +8742,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F239" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -8774,10 +8771,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F240" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -8803,10 +8800,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F241" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8832,10 +8829,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>54</v>
+      </c>
+      <c r="F242" t="s">
         <v>55</v>
-      </c>
-      <c r="F242" t="s">
-        <v>56</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8861,10 +8858,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F243" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8890,10 +8887,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F244" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8919,10 +8916,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F245" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8948,10 +8945,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F246" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8977,10 +8974,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F247" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9006,10 +9003,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F248" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9035,10 +9032,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F249" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9064,10 +9061,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F250" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9093,10 +9090,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F251" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9122,10 +9119,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F252" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9151,10 +9148,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F253" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9180,10 +9177,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F254" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9209,10 +9206,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F255" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9238,10 +9235,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F256" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9267,10 +9264,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>18</v>
+      </c>
+      <c r="F257" t="s">
         <v>19</v>
-      </c>
-      <c r="F257" t="s">
-        <v>20</v>
       </c>
       <c r="G257" t="n">
         <v>9</v>
@@ -9296,18 +9293,76 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>481</v>
+      </c>
+      <c r="F258" t="s">
+        <v>482</v>
+      </c>
+      <c r="G258" t="n">
+        <v>1</v>
+      </c>
+      <c r="H258" t="s">
+        <v>4</v>
+      </c>
+      <c r="I258" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>0</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1</v>
+      </c>
+      <c r="D259" t="n">
+        <v>258</v>
+      </c>
+      <c r="E259" t="s">
+        <v>483</v>
+      </c>
+      <c r="F259" t="s">
+        <v>484</v>
+      </c>
+      <c r="G259" t="n">
+        <v>10</v>
+      </c>
+      <c r="H259" t="s">
+        <v>4</v>
+      </c>
+      <c r="I259" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>0</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1</v>
+      </c>
+      <c r="D260" t="n">
+        <v>259</v>
+      </c>
+      <c r="E260" t="s">
+        <v>483</v>
+      </c>
+      <c r="F260" t="s">
         <v>485</v>
       </c>
-      <c r="F258" t="s">
-        <v>486</v>
-      </c>
-      <c r="G258" t="n">
-        <v>1</v>
-      </c>
-      <c r="H258" t="s">
-        <v>4</v>
-      </c>
-      <c r="I258" t="n">
+      <c r="G260" t="n">
+        <v>1</v>
+      </c>
+      <c r="H260" t="s">
+        <v>4</v>
+      </c>
+      <c r="I260" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/马克斯·韦伯_intext.xlsx
+++ b/xlsx/马克斯·韦伯_intext.xlsx
@@ -29,7 +29,7 @@
     <t>普鲁士王国</t>
   </si>
   <si>
-    <t>政策_政策_管理_马克斯·韦伯</t>
+    <t>体育运动_体育运动_社会活动_马克斯·韦伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E7%A6%8F%E7%89%B9</t>
